--- a/models/types2and7/Best_VotingEnsemble/ModelMetrics.xlsx
+++ b/models/types2and7/Best_VotingEnsemble/ModelMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\types2and7\Best_VotingEnsemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F44A1C5-F871-4137-910C-F87CF015F706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE75034-44C9-4ACB-B6A5-913130D75815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60A589D9-57DD-4AA5-BE5F-F36D7881DF09}"/>
+    <workbookView xWindow="22620" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{60A589D9-57DD-4AA5-BE5F-F36D7881DF09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>VotingEnsemble</t>
   </si>
   <si>
-    <t>bfc0cfb3-2795-4df0-ad7b-ca31323b541d_44</t>
+    <t>5f85f5bb-596e-44e1-b790-414f94ed8f18_40</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.65476000000000001</v>
+        <v>0.68571000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.58957999999999999</v>
+        <v>0.65832999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.66422999999999999</v>
+        <v>0.70204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.58957999999999999</v>
+        <v>0.65832999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.58801000000000003</v>
+        <v>0.63402999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.65037</v>
+        <v>0.71223999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.63656999999999997</v>
+        <v>0.73980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.58333000000000002</v>
+        <v>0.65832999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.51375999999999999</v>
+        <v>0.56384000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.65476000000000001</v>
+        <v>0.68571000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.58291000000000004</v>
+        <v>0.64136000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.66832999999999998</v>
+        <v>0.66517000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.19792999999999999</v>
+        <v>0.31667000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.18667</v>
+        <v>0.31667000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.54893000000000003</v>
+        <v>0.60119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.65476000000000001</v>
+        <v>0.68571000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.62195999999999996</v>
+        <v>0.73129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.58333000000000002</v>
+        <v>0.65832999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.65476000000000001</v>
+        <v>0.68571000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.65476000000000001</v>
+        <v>0.68571000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.70552000000000004</v>
+        <v>0.70443</v>
       </c>
     </row>
   </sheetData>
